--- a/DataConfig/Excel/bank_card.xlsx
+++ b/DataConfig/Excel/bank_card.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383F0A2-730E-42BE-8D80-2D24A14BAFD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BANK_CARD" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
   <si>
     <t>required</t>
   </si>
@@ -100,14 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,122 +141,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -264,37 +151,6 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -375,8 +231,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,67 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,79 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,61 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,99 +348,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,17 +368,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,412 +464,224 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="60% - 着色 6 2" xfId="56"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="59"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1549,26 +939,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BJ202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BJ203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="60.875" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:62">
+    <row r="1" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1636,7 +1026,7 @@
       <c r="BI1" s="2"/>
       <c r="BJ1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="2:4">
+    <row r="2" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1645,7 +1035,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" ht="14.25" spans="2:4">
+    <row r="3" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1044,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:4">
+    <row r="4" spans="1:62" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1056,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="14.25" spans="2:4">
+    <row r="5" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>436742</v>
       </c>
@@ -1675,7 +1065,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" ht="14.25" spans="2:4">
+    <row r="6" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>436745</v>
       </c>
@@ -1684,1204 +1074,1204 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="2:4">
+    <row r="7" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <v>622280</v>
+        <v>621700</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" ht="14.25" spans="2:4">
+    <row r="8" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
+        <v>622280</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>458123</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:4">
-      <c r="B9" s="6">
-        <v>521899</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" ht="14.25" spans="2:4">
+    <row r="10" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <v>622260</v>
+        <v>521899</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" ht="14.25" spans="2:4">
+    <row r="11" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
+        <v>622260</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
         <v>402674</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="6">
-        <v>622892</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" ht="14.25" spans="2:4">
+    <row r="13" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
+        <v>622892</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>622188</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:4">
-      <c r="B14" s="6">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>602969</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:4">
-      <c r="B15" s="6">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
         <v>622760</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:4">
-      <c r="B16" s="6">
-        <v>409666</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" ht="14.25" spans="2:4">
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
-        <v>438088</v>
+        <v>409666</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" ht="14.25" spans="2:4">
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
-        <v>622752</v>
+        <v>438088</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" ht="14.25" spans="2:4">
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
+        <v>622752</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
         <v>427020</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:4">
-      <c r="B20" s="6">
-        <v>427030</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" ht="14.25" spans="2:4">
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
-        <v>530990</v>
+        <v>427030</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" ht="14.25" spans="2:4">
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
-        <v>622230</v>
+        <v>530990</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" ht="14.25" spans="2:4">
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
-        <v>622235</v>
+        <v>622230</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" ht="14.25" spans="2:4">
+    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
-        <v>622210</v>
+        <v>622235</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" ht="14.25" spans="2:4">
+    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
-        <v>622215</v>
+        <v>622210</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" ht="14.25" spans="2:4">
+    <row r="26" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
-        <v>622200</v>
+        <v>622215</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" ht="14.25" spans="2:4">
+    <row r="27" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
-        <v>955880</v>
+        <v>622200</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" ht="14.25" spans="2:4">
+    <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
+        <v>955880</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <v>622568</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" ht="14.25" spans="2:4">
-      <c r="B29" s="6">
-        <v>520152</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" ht="14.25" spans="2:4">
+    <row r="30" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
-        <v>520382</v>
+        <v>520152</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" ht="14.25" spans="2:4">
+    <row r="31" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
-        <v>911121</v>
+        <v>520382</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" ht="14.25" spans="2:4">
+    <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
-        <v>548844</v>
+        <v>911121</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" ht="14.25" spans="2:4">
+    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
+        <v>548844</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
         <v>512431</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" ht="14.25" spans="2:4">
-      <c r="B34" s="6">
-        <v>520194</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" ht="14.25" spans="2:4">
+    <row r="35" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
-        <v>622318</v>
+        <v>520194</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" ht="14.25" spans="2:4">
+    <row r="36" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
-        <v>622778</v>
+        <v>622318</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" ht="14.25" spans="2:4">
+    <row r="37" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
-        <v>622282</v>
+        <v>622778</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" ht="14.25" spans="2:4">
+    <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
+        <v>622282</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
         <v>407405</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" ht="14.25" spans="2:4">
-      <c r="B39" s="6">
-        <v>517636</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" ht="14.25" spans="2:4">
+    <row r="40" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
-        <v>512466</v>
+        <v>517636</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" ht="14.25" spans="2:4">
+    <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
-        <v>415599</v>
+        <v>512466</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" ht="14.25" spans="2:4">
+    <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
-        <v>421870</v>
+        <v>415599</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" ht="14.25" spans="2:4">
+    <row r="43" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
-        <v>622622</v>
+        <v>421870</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" ht="14.25" spans="2:4">
+    <row r="44" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
-        <v>528948</v>
+        <v>622622</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" ht="14.25" spans="2:4">
+    <row r="45" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
-        <v>552288</v>
+        <v>528948</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" ht="14.25" spans="2:4">
+    <row r="46" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
-        <v>556610</v>
+        <v>552288</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" ht="14.25" spans="2:4">
+    <row r="47" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
-        <v>622600</v>
+        <v>556610</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" ht="14.25" spans="2:4">
+    <row r="48" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
-        <v>622601</v>
+        <v>622600</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" ht="14.25" spans="2:4">
+    <row r="49" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
-        <v>622602</v>
+        <v>622601</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" ht="14.25" spans="2:4">
+    <row r="50" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
-        <v>622603</v>
+        <v>622602</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" ht="14.25" spans="2:4">
+    <row r="51" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
-        <v>421869</v>
+        <v>622603</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" ht="14.25" spans="2:4">
+    <row r="52" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
-        <v>421871</v>
+        <v>421869</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" ht="14.25" spans="2:4">
+    <row r="53" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
-        <v>628258</v>
+        <v>421871</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" ht="14.25" spans="2:4">
+    <row r="54" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
+        <v>628258</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
         <v>418152</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" ht="14.25" spans="2:4">
-      <c r="B55" s="6">
-        <v>456418</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" ht="14.25" spans="2:4">
+    <row r="56" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
-        <v>622521</v>
+        <v>456418</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" ht="14.25" spans="2:4">
+    <row r="57" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
-        <v>404738</v>
+        <v>622521</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" ht="14.25" spans="2:4">
+    <row r="58" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
-        <v>404739</v>
+        <v>404738</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" ht="14.25" spans="2:4">
+    <row r="59" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
-        <v>498451</v>
+        <v>404739</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" ht="14.25" spans="2:4">
+    <row r="60" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
-        <v>622517</v>
+        <v>498451</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" ht="14.25" spans="2:4">
+    <row r="61" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
-        <v>622518</v>
+        <v>622517</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" ht="14.25" spans="2:4">
+    <row r="62" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
-        <v>515672</v>
+        <v>622518</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" ht="14.25" spans="2:4">
+    <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
-        <v>517650</v>
+        <v>515672</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" ht="14.25" spans="2:4">
+    <row r="64" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
-        <v>525998</v>
+        <v>517650</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" ht="14.25" spans="2:4">
+    <row r="65" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
-        <v>356850</v>
+        <v>525998</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" ht="14.25" spans="2:4">
+    <row r="66" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
-        <v>356851</v>
+        <v>356850</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" ht="14.25" spans="2:4">
+    <row r="67" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
-        <v>356852</v>
+        <v>356851</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" ht="14.25" spans="2:4">
+    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
+        <v>356852</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
         <v>435744</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" ht="14.25" spans="2:4">
-      <c r="B69" s="6">
-        <v>622526</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" ht="14.25" spans="2:4">
+    <row r="70" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
-        <v>435745</v>
+        <v>622526</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" ht="14.25" spans="2:4">
+    <row r="71" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
-        <v>998801</v>
+        <v>435745</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" ht="14.25" spans="2:4">
+    <row r="72" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
-        <v>998802</v>
+        <v>998801</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" ht="14.25" spans="2:4">
+    <row r="73" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
-        <v>622525</v>
+        <v>998802</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" ht="14.25" spans="2:4">
+    <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
-        <v>622538</v>
+        <v>622525</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" ht="14.25" spans="2:4">
+    <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
+        <v>622538</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
         <v>406254</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" ht="14.25" spans="2:4">
-      <c r="B76" s="6">
-        <v>622655</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" ht="14.25" spans="2:4">
+    <row r="77" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
-        <v>622650</v>
+        <v>622655</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" ht="14.25" spans="2:4">
+    <row r="78" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
-        <v>622658</v>
+        <v>622650</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" ht="14.25" spans="2:4">
+    <row r="79" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
-        <v>356839</v>
+        <v>622658</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" ht="14.25" spans="2:4">
+    <row r="80" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
-        <v>486497</v>
+        <v>356839</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" ht="14.25" spans="2:4">
+    <row r="81" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
-        <v>481699</v>
+        <v>486497</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" ht="14.25" spans="2:4">
+    <row r="82" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
-        <v>543159</v>
+        <v>481699</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" ht="14.25" spans="2:4">
+    <row r="83" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
-        <v>425862</v>
+        <v>543159</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" ht="14.25" spans="2:4">
+    <row r="84" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
-        <v>406252</v>
+        <v>425862</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" ht="14.25" spans="2:4">
+    <row r="85" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
-        <v>356837</v>
+        <v>406252</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" ht="14.25" spans="2:4">
+    <row r="86" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
-        <v>356838</v>
+        <v>356837</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" ht="14.25" spans="2:4">
+    <row r="87" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
-        <v>356840</v>
+        <v>356838</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" ht="14.25" spans="2:4">
+    <row r="88" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
-        <v>622161</v>
+        <v>356840</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" ht="14.25" spans="2:4">
+    <row r="89" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
-        <v>628201</v>
+        <v>622161</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" ht="14.25" spans="2:4">
+    <row r="90" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
-        <v>628202</v>
+        <v>628201</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" ht="14.25" spans="2:4">
+    <row r="91" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
+        <v>628202</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
         <v>622155</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" ht="14.25" spans="2:4">
-      <c r="B92" s="6">
-        <v>622156</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" ht="14.25" spans="2:4">
+    <row r="93" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
-        <v>528020</v>
+        <v>622156</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" ht="14.25" spans="2:4">
+    <row r="94" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
-        <v>526855</v>
+        <v>528020</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" ht="14.25" spans="2:4">
+    <row r="95" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
+        <v>526855</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
         <v>539867</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" ht="14.25" spans="2:4">
-      <c r="B96" s="6">
-        <v>528709</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" ht="14.25" spans="2:4">
+    <row r="97" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
-        <v>523959</v>
+        <v>528709</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" ht="14.25" spans="2:4">
+    <row r="98" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
-        <v>622637</v>
+        <v>523959</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" ht="14.25" spans="2:4">
+    <row r="99" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
-        <v>622636</v>
+        <v>622637</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" ht="14.25" spans="2:4">
+    <row r="100" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
-        <v>528708</v>
+        <v>622636</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" ht="14.25" spans="2:4">
+    <row r="101" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
-        <v>539868</v>
+        <v>528708</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" ht="14.25" spans="2:4">
+    <row r="102" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
+        <v>539868</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
         <v>518710</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" ht="14.25" spans="2:4">
-      <c r="B103" s="6">
+      <c r="C103" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
         <v>518718</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" ht="14.25" spans="2:4">
-      <c r="B104" s="6">
+      <c r="C104" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
         <v>622588</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" ht="14.25" spans="2:4">
-      <c r="B105" s="6">
+      <c r="C105" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
         <v>622575</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" ht="14.25" spans="2:4">
-      <c r="B106" s="6">
+      <c r="C106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
         <v>545947</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" ht="14.25" spans="2:4">
-      <c r="B107" s="6">
+      <c r="C107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
         <v>521302</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" ht="14.25" spans="2:4">
-      <c r="B108" s="6">
+      <c r="C108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
         <v>439229</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" ht="14.25" spans="2:4">
-      <c r="B109" s="6">
+      <c r="C109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
         <v>552534</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" ht="14.25" spans="2:4">
-      <c r="B110" s="6">
+      <c r="C110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
         <v>622577</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" ht="14.25" spans="2:4">
-      <c r="B111" s="6">
+      <c r="C111" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
         <v>622579</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" ht="14.25" spans="2:4">
-      <c r="B112" s="6">
+      <c r="C112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
         <v>439227</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" ht="14.25" spans="2:4">
-      <c r="B113" s="6">
+      <c r="C113" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
         <v>479229</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" ht="14.25" spans="2:4">
-      <c r="B114" s="6">
+      <c r="C114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
         <v>356890</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" ht="14.25" spans="2:4">
-      <c r="B115" s="6">
+      <c r="C115" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B116" s="6">
         <v>356889</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" ht="14.25" spans="2:4">
-      <c r="B116" s="6">
+      <c r="C116" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B117" s="6">
         <v>356885</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" ht="14.25" spans="2:4">
-      <c r="B117" s="6">
+      <c r="C117" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B118" s="6">
         <v>439188</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" ht="14.25" spans="2:4">
-      <c r="B118" s="6">
+      <c r="C118" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B119" s="6">
         <v>545948</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" ht="14.25" spans="2:4">
-      <c r="B119" s="6">
+      <c r="C119" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
         <v>545623</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" ht="14.25" spans="2:4">
-      <c r="B120" s="6">
+      <c r="C120" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B121" s="6">
         <v>552580</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" ht="14.25" spans="2:4">
-      <c r="B121" s="6">
+      <c r="C121" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B122" s="6">
         <v>552581</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" ht="14.25" spans="2:4">
-      <c r="B122" s="6">
+      <c r="C122" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B123" s="6">
         <v>552582</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" ht="14.25" spans="2:4">
-      <c r="B123" s="6">
+      <c r="C123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B124" s="6">
         <v>552583</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" ht="14.25" spans="2:4">
-      <c r="B124" s="6">
+      <c r="C124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B125" s="6">
         <v>552584</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" ht="14.25" spans="2:4">
-      <c r="B125" s="6">
+      <c r="C125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B126" s="6">
         <v>552585</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" ht="14.25" spans="2:4">
-      <c r="B126" s="6">
+      <c r="C126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B127" s="6">
         <v>552586</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" ht="14.25" spans="2:4">
-      <c r="B127" s="6">
+      <c r="C127" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B128" s="6">
         <v>552588</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" ht="14.25" spans="2:4">
-      <c r="B128" s="6">
+      <c r="C128" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B129" s="6">
         <v>552589</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" ht="14.25" spans="2:4">
-      <c r="B129" s="6">
+      <c r="C129" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B130" s="6">
         <v>645621</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" ht="14.25" spans="2:4">
-      <c r="B130" s="6">
+      <c r="C130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B131" s="6">
         <v>545619</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" ht="14.25" spans="2:4">
-      <c r="B131" s="6">
+      <c r="C131" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B132" s="6">
         <v>356886</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" ht="14.25" spans="2:4">
-      <c r="B132" s="6">
+      <c r="C132" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B133" s="6">
         <v>622578</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" ht="14.25" spans="2:4">
-      <c r="B133" s="6">
+      <c r="C133" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B134" s="6">
         <v>622576</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" ht="14.25" spans="2:4">
-      <c r="B134" s="6">
+      <c r="C134" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B135" s="6">
         <v>622581</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" ht="14.25" spans="2:4">
-      <c r="B135" s="6">
+      <c r="C135" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B136" s="6">
         <v>439228</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" ht="14.25" spans="2:4">
-      <c r="B136" s="6">
+      <c r="C136" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B137" s="6">
         <v>439225</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" ht="14.25" spans="2:4">
-      <c r="B137" s="6">
+      <c r="C137" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B138" s="6">
         <v>439226</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" ht="14.25" spans="2:4">
-      <c r="B138" s="6">
+      <c r="C138" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B139" s="6">
         <v>628262</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" ht="14.25" spans="2:4">
-      <c r="B139" s="6">
-        <v>628362</v>
-      </c>
       <c r="C139" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" ht="14.25" spans="2:4">
+    <row r="140" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>628362</v>
       </c>
@@ -2890,567 +2280,576 @@
       </c>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" ht="14.25" spans="2:4">
+    <row r="141" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
+        <v>628362</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B142" s="6">
         <v>628262</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" ht="14.25" spans="2:4">
-      <c r="B142" s="6">
+      <c r="C142" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B143" s="6">
         <v>376968</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" ht="14.25" spans="2:4">
-      <c r="B143" s="6">
+      <c r="C143" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B144" s="6">
         <v>376966</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" ht="14.25" spans="2:4">
-      <c r="B144" s="6">
+      <c r="C144" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B145" s="6">
         <v>622918</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" ht="14.25" spans="2:4">
-      <c r="B145" s="6">
+      <c r="C145" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B146" s="6">
         <v>622916</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" ht="14.25" spans="2:4">
-      <c r="B146" s="6">
+      <c r="C146" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B147" s="6">
         <v>518212</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" ht="14.25" spans="2:4">
-      <c r="B147" s="6">
+      <c r="C147" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B148" s="6">
         <v>622690</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" ht="14.25" spans="2:4">
-      <c r="B148" s="6">
+      <c r="C148" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B149" s="6">
         <v>520108</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" ht="14.25" spans="2:4">
-      <c r="B149" s="6">
+      <c r="C149" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B150" s="6">
         <v>376969</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" ht="14.25" spans="2:4">
-      <c r="B150" s="6">
+      <c r="C150" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B151" s="6">
         <v>622919</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" ht="14.25" spans="2:4">
-      <c r="B151" s="6">
+      <c r="C151" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B152" s="6">
         <v>556617</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" ht="14.25" spans="2:4">
-      <c r="B152" s="6">
+      <c r="C152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B153" s="6">
         <v>622680</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" ht="14.25" spans="2:4">
-      <c r="B153" s="6">
+      <c r="C153" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B154" s="6">
         <v>403391</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" ht="14.25" spans="2:4">
-      <c r="B154" s="6">
+      <c r="C154" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B155" s="6">
         <v>558916</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" ht="14.25" spans="2:4">
-      <c r="B155" s="6">
+      <c r="C155" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B156" s="6">
         <v>514906</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" ht="14.25" spans="2:4">
-      <c r="B156" s="6">
+      <c r="C156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B157" s="6">
         <v>400360</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" ht="14.25" spans="2:4">
-      <c r="B157" s="6">
+      <c r="C157" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B158" s="6">
         <v>433669</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" ht="14.25" spans="2:4">
-      <c r="B158" s="6">
+      <c r="C158" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B159" s="6">
         <v>433667</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" ht="14.25" spans="2:4">
-      <c r="B159" s="6">
+      <c r="C159" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B160" s="6">
         <v>433666</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" ht="14.25" spans="2:4">
-      <c r="B160" s="6">
+      <c r="C160" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B161" s="6">
         <v>404173</v>
       </c>
-      <c r="C160" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" ht="14.25" spans="2:4">
-      <c r="B161" s="6">
+      <c r="C161" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B162" s="6">
         <v>404172</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" ht="14.25" spans="2:4">
-      <c r="B162" s="6">
+      <c r="C162" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B163" s="6">
         <v>404159</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" ht="14.25" spans="2:4">
-      <c r="B163" s="6">
+      <c r="C163" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B164" s="6">
         <v>404158</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" ht="14.25" spans="2:4">
-      <c r="B164" s="6">
+      <c r="C164" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B165" s="6">
         <v>403393</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" ht="14.25" spans="2:4">
-      <c r="B165" s="6">
+      <c r="C165" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B166" s="6">
         <v>403392</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" ht="14.25" spans="2:4">
-      <c r="B166" s="6">
+      <c r="C166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B167" s="6">
         <v>622689</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" ht="14.25" spans="2:4">
-      <c r="B167" s="6">
+      <c r="C167" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B168" s="6">
         <v>622688</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" ht="14.25" spans="2:4">
-      <c r="B168" s="6">
+      <c r="C168" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B169" s="6">
         <v>433668</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" ht="14.25" spans="2:4">
-      <c r="B169" s="6">
+      <c r="C169" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B170" s="6">
         <v>404157</v>
       </c>
-      <c r="C169" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" ht="14.25" spans="2:4">
-      <c r="B170" s="6">
+      <c r="C170" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B171" s="6">
         <v>404171</v>
       </c>
-      <c r="C170" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" ht="14.25" spans="2:4">
-      <c r="B171" s="6">
+      <c r="C171" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B172" s="6">
         <v>404174</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" ht="14.25" spans="2:4">
-      <c r="B172" s="6">
+      <c r="C172" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B173" s="6">
         <v>628209</v>
       </c>
-      <c r="C172" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" ht="14.25" spans="2:4">
-      <c r="B173" s="6">
+      <c r="C173" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B174" s="6">
         <v>628208</v>
       </c>
-      <c r="C173" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" ht="14.25" spans="2:4">
-      <c r="B174" s="6">
+      <c r="C174" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B175" s="6">
         <v>628206</v>
       </c>
-      <c r="C174" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" ht="14.25" spans="2:4">
-      <c r="B175" s="6">
+      <c r="C175" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B176" s="6">
         <v>451289</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" ht="14.25" spans="2:4">
-      <c r="B176" s="6">
-        <v>622902</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" ht="14.25" spans="2:4">
+    <row r="177" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B177" s="6">
-        <v>622901</v>
+        <v>622902</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" ht="14.25" spans="2:4">
+    <row r="178" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B178" s="6">
-        <v>527414</v>
+        <v>622901</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" ht="14.25" spans="2:4">
+    <row r="179" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B179" s="6">
-        <v>524070</v>
+        <v>527414</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" ht="14.25" spans="2:4">
+    <row r="180" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B180" s="6">
-        <v>486493</v>
+        <v>524070</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" ht="14.25" spans="2:4">
+    <row r="181" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B181" s="6">
-        <v>486494</v>
+        <v>486493</v>
       </c>
       <c r="C181" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" ht="14.25" spans="2:4">
+    <row r="182" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B182" s="6">
-        <v>451290</v>
+        <v>486494</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" ht="14.25" spans="2:4">
+    <row r="183" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B183" s="6">
-        <v>523036</v>
+        <v>451290</v>
       </c>
       <c r="C183" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" ht="14.25" spans="2:4">
+    <row r="184" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B184" s="6">
-        <v>486861</v>
+        <v>523036</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" ht="14.25" spans="2:4">
+    <row r="185" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B185" s="6">
-        <v>622922</v>
+        <v>486861</v>
       </c>
       <c r="C185" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" ht="14.25" spans="2:4">
+    <row r="186" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B186" s="6">
+        <v>622922</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B187" s="6">
         <v>552599</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" ht="14.25" spans="2:4">
-      <c r="B187" s="6">
-        <v>404119</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" ht="14.25" spans="2:4">
+    <row r="188" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B188" s="6">
-        <v>404121</v>
+        <v>404119</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" ht="14.25" spans="2:4">
+    <row r="189" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B189" s="6">
-        <v>519412</v>
+        <v>404121</v>
       </c>
       <c r="C189" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" ht="14.25" spans="2:4">
+    <row r="190" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B190" s="6">
-        <v>403361</v>
+        <v>519412</v>
       </c>
       <c r="C190" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" ht="14.25" spans="2:4">
+    <row r="191" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B191" s="6">
-        <v>558730</v>
+        <v>403361</v>
       </c>
       <c r="C191" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" ht="14.25" spans="2:4">
+    <row r="192" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
-        <v>520083</v>
+        <v>558730</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" ht="14.25" spans="2:4">
+    <row r="193" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
-        <v>520082</v>
+        <v>520083</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" ht="14.25" spans="2:4">
+    <row r="194" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
-        <v>519413</v>
+        <v>520082</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" ht="14.25" spans="2:4">
+    <row r="195" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
-        <v>49102</v>
+        <v>519413</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" ht="14.25" spans="2:4">
+    <row r="196" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
-        <v>404120</v>
+        <v>49102</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" ht="14.25" spans="2:4">
+    <row r="197" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
-        <v>404118</v>
+        <v>404120</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" ht="14.25" spans="2:4">
+    <row r="198" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B198" s="6">
-        <v>53591</v>
+        <v>404118</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" ht="14.25" spans="2:4">
+    <row r="199" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B199" s="6">
-        <v>404117</v>
+        <v>53591</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" ht="14.25" spans="2:4">
+    <row r="200" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B200" s="6">
-        <v>622836</v>
+        <v>404117</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" ht="14.25" spans="2:4">
+    <row r="201" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
-        <v>622837</v>
+        <v>622836</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" ht="14.25" spans="2:4">
+    <row r="202" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B202" s="6">
-        <v>622848</v>
+        <v>622837</v>
       </c>
       <c r="C202" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D202" s="4"/>
     </row>
+    <row r="203" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B203" s="6">
+        <v>622848</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" s="4"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/bank_card.xlsx
+++ b/DataConfig/Excel/bank_card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383F0A2-730E-42BE-8D80-2D24A14BAFD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1FC3D3-BED5-4798-AEBB-611E52B32062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="48">
   <si>
     <t>required</t>
   </si>
@@ -85,9 +85,6 @@
     <t>光大银行储蓄卡</t>
   </si>
   <si>
-    <t>深圳平安银行储蓄卡</t>
-  </si>
-  <si>
     <t>华夏银行储蓄卡</t>
   </si>
   <si>
@@ -101,13 +98,341 @@
   </si>
   <si>
     <t>中国农业银行储蓄卡</t>
+  </si>
+  <si>
+    <t>card_icon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>银行卡ic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_jian_she</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_jiao_tong</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_shang_hai</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_you_zheng</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_bei_jing</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_china</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_gong_shang</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_guang_fa</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_ning_bo</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_min_sheng</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_pu_fa</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_shen_zhen_fa_zhan</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_guang_da</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行储蓄卡</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_ping_an</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_hua_xia</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_zhao_shang</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_zhong_xin</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_xing_ye</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ank_nong_ye</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +561,20 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -592,16 +931,12 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,6 +963,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -948,1904 +1289,2309 @@
   <dimension ref="A1:BJ203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
     </row>
     <row r="2" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:62" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>436742</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>436745</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>621700</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>622280</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>458123</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>521899</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>622260</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>402674</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>622892</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>622188</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>602969</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:62" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>622760</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>409666</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>438088</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>622752</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>427020</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>427030</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>530990</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>622230</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>622235</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>622210</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>622215</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>622200</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>955880</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>622568</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>520152</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>520382</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>911121</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>548844</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>512431</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>520194</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>622318</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>622778</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>622282</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>407405</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>517636</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>512466</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>415599</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>421870</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="44" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>622622</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>528948</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>552288</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>556610</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="48" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>622600</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>622601</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="50" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>622602</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>622603</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>421869</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>421871</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="54" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>628258</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="55" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>418152</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="56" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
+      <c r="B56" s="4">
         <v>456418</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="57" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
+      <c r="B57" s="4">
         <v>622521</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>404738</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
+      <c r="B59" s="4">
         <v>404739</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="60" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B60" s="6">
+      <c r="B60" s="4">
         <v>498451</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="61" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>622517</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="62" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B62" s="6">
+      <c r="B62" s="4">
         <v>622518</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B63" s="6">
+      <c r="B63" s="4">
         <v>515672</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="64" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B64" s="6">
+      <c r="B64" s="4">
         <v>517650</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="65" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B65" s="6">
+      <c r="B65" s="4">
         <v>525998</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="66" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B66" s="6">
+      <c r="B66" s="4">
         <v>356850</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="67" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B67" s="6">
+      <c r="B67" s="4">
         <v>356851</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B68" s="6">
+      <c r="B68" s="4">
         <v>356852</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B69" s="6">
+      <c r="B69" s="4">
         <v>435744</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="70" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B70" s="6">
+      <c r="B70" s="4">
         <v>622526</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="71" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B71" s="6">
+      <c r="B71" s="4">
         <v>435745</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="72" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B72" s="6">
+      <c r="B72" s="4">
         <v>998801</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="73" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B73" s="6">
+      <c r="B73" s="4">
         <v>998802</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B74" s="6">
+      <c r="B74" s="4">
         <v>622525</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B75" s="6">
+      <c r="B75" s="4">
         <v>622538</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B76" s="6">
+      <c r="B76" s="4">
         <v>406254</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="77" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B77" s="6">
+      <c r="B77" s="4">
         <v>622655</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="78" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B78" s="6">
+      <c r="B78" s="4">
         <v>622650</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B79" s="6">
+      <c r="B79" s="4">
         <v>622658</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="80" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B80" s="6">
+      <c r="B80" s="4">
         <v>356839</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="81" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B81" s="6">
+      <c r="B81" s="4">
         <v>486497</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="82" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B82" s="6">
+      <c r="B82" s="4">
         <v>481699</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="83" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B83" s="6">
+      <c r="B83" s="4">
         <v>543159</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="84" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B84" s="6">
+      <c r="B84" s="4">
         <v>425862</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="85" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B85" s="6">
+      <c r="B85" s="4">
         <v>406252</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="86" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B86" s="6">
+      <c r="B86" s="4">
         <v>356837</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="87" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B87" s="6">
+      <c r="B87" s="4">
         <v>356838</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="88" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B88" s="6">
+      <c r="B88" s="4">
         <v>356840</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="89" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B89" s="6">
+      <c r="B89" s="4">
         <v>622161</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="90" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B90" s="6">
+      <c r="B90" s="4">
         <v>628201</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="91" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B91" s="6">
+      <c r="B91" s="4">
         <v>628202</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="92" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B92" s="6">
+      <c r="B92" s="4">
         <v>622155</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>622156</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>528020</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B95" s="4">
+        <v>526855</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B96" s="4">
+        <v>539867</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B93" s="6">
-        <v>622156</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="D96" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
+        <v>528709</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B94" s="6">
-        <v>528020</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="D97" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
+        <v>523959</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B95" s="6">
-        <v>526855</v>
-      </c>
-      <c r="C95" s="10" t="s">
+      <c r="D98" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
+        <v>622637</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
-        <v>539867</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B97" s="6">
-        <v>528709</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B98" s="6">
-        <v>523959</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B99" s="6">
-        <v>622637</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="100" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B100" s="6">
+      <c r="B100" s="4">
         <v>622636</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="4"/>
+      <c r="C100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="101" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B101" s="6">
+      <c r="B101" s="4">
         <v>528708</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="4"/>
+      <c r="C101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="102" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B102" s="6">
+      <c r="B102" s="4">
         <v>539868</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="4"/>
+      <c r="C102" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="103" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
+      <c r="B103" s="4">
         <v>518710</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
+        <v>518718</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
+        <v>622588</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
+        <v>622575</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B107" s="4">
+        <v>545947</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
+        <v>521302</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>439229</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>552534</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>622577</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>622579</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
+        <v>439227</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
+        <v>479229</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
+        <v>356890</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
+        <v>356889</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>356885</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
+        <v>439188</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
+        <v>545948</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B120" s="4">
+        <v>545623</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B121" s="4">
+        <v>552580</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B122" s="4">
+        <v>552581</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B123" s="4">
+        <v>552582</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B124" s="4">
+        <v>552583</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B125" s="4">
+        <v>552584</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B126" s="4">
+        <v>552585</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B127" s="4">
+        <v>552586</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B128" s="4">
+        <v>552588</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B129" s="4">
+        <v>552589</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B130" s="4">
+        <v>645621</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B131" s="4">
+        <v>545619</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B132" s="4">
+        <v>356886</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B133" s="4">
+        <v>622578</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B134" s="4">
+        <v>622576</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B135" s="4">
+        <v>622581</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B136" s="4">
+        <v>439228</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B137" s="4">
+        <v>439225</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B138" s="4">
+        <v>439226</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B139" s="4">
+        <v>628262</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B140" s="4">
+        <v>628362</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B141" s="4">
+        <v>628362</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B142" s="4">
+        <v>628262</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B143" s="4">
+        <v>376968</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
-        <v>518718</v>
-      </c>
-      <c r="C104" s="10" t="s">
+      <c r="D143" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B144" s="4">
+        <v>376966</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B105" s="6">
-        <v>622588</v>
-      </c>
-      <c r="C105" s="10" t="s">
+      <c r="D144" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B145" s="4">
+        <v>622918</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B106" s="6">
-        <v>622575</v>
-      </c>
-      <c r="C106" s="10" t="s">
+      <c r="D145" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B146" s="4">
+        <v>622916</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B107" s="6">
-        <v>545947</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="D146" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B147" s="4">
+        <v>518212</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B108" s="6">
-        <v>521302</v>
-      </c>
-      <c r="C108" s="10" t="s">
+      <c r="D147" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B148" s="4">
+        <v>622690</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B109" s="6">
-        <v>439229</v>
-      </c>
-      <c r="C109" s="10" t="s">
+      <c r="D148" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B149" s="4">
+        <v>520108</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B110" s="6">
-        <v>552534</v>
-      </c>
-      <c r="C110" s="10" t="s">
+      <c r="D149" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B150" s="4">
+        <v>376969</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B111" s="6">
-        <v>622577</v>
-      </c>
-      <c r="C111" s="10" t="s">
+      <c r="D150" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B151" s="4">
+        <v>622919</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B112" s="6">
-        <v>622579</v>
-      </c>
-      <c r="C112" s="10" t="s">
+      <c r="D151" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B152" s="4">
+        <v>556617</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B113" s="6">
-        <v>439227</v>
-      </c>
-      <c r="C113" s="10" t="s">
+      <c r="D152" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B153" s="4">
+        <v>622680</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B114" s="6">
-        <v>479229</v>
-      </c>
-      <c r="C114" s="10" t="s">
+      <c r="D153" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B154" s="4">
+        <v>403391</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B115" s="6">
-        <v>356890</v>
-      </c>
-      <c r="C115" s="10" t="s">
+      <c r="D154" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B155" s="4">
+        <v>558916</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B116" s="6">
-        <v>356889</v>
-      </c>
-      <c r="C116" s="10" t="s">
+      <c r="D155" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B156" s="4">
+        <v>514906</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B117" s="6">
-        <v>356885</v>
-      </c>
-      <c r="C117" s="10" t="s">
+      <c r="D156" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B157" s="4">
+        <v>400360</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B118" s="6">
-        <v>439188</v>
-      </c>
-      <c r="C118" s="10" t="s">
+      <c r="D157" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B158" s="4">
+        <v>433669</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B119" s="6">
-        <v>545948</v>
-      </c>
-      <c r="C119" s="10" t="s">
+      <c r="D158" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B159" s="4">
+        <v>433667</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B120" s="6">
-        <v>545623</v>
-      </c>
-      <c r="C120" s="10" t="s">
+      <c r="D159" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B160" s="4">
+        <v>433666</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="6">
-        <v>552580</v>
-      </c>
-      <c r="C121" s="10" t="s">
+      <c r="D160" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B161" s="4">
+        <v>404173</v>
+      </c>
+      <c r="C161" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B122" s="6">
-        <v>552581</v>
-      </c>
-      <c r="C122" s="10" t="s">
+      <c r="D161" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B162" s="4">
+        <v>404172</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B123" s="6">
-        <v>552582</v>
-      </c>
-      <c r="C123" s="10" t="s">
+      <c r="D162" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B163" s="4">
+        <v>404159</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B124" s="6">
-        <v>552583</v>
-      </c>
-      <c r="C124" s="10" t="s">
+      <c r="D163" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B164" s="4">
+        <v>404158</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B125" s="6">
-        <v>552584</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="D164" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B165" s="4">
+        <v>403393</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B126" s="6">
-        <v>552585</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="D165" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B166" s="4">
+        <v>403392</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B127" s="6">
-        <v>552586</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="D166" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B167" s="4">
+        <v>622689</v>
+      </c>
+      <c r="C167" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B128" s="6">
-        <v>552588</v>
-      </c>
-      <c r="C128" s="10" t="s">
+      <c r="D167" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B168" s="4">
+        <v>622688</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B129" s="6">
-        <v>552589</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="D168" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B169" s="4">
+        <v>433668</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B130" s="6">
-        <v>645621</v>
-      </c>
-      <c r="C130" s="10" t="s">
+      <c r="D169" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B170" s="4">
+        <v>404157</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B131" s="6">
-        <v>545619</v>
-      </c>
-      <c r="C131" s="10" t="s">
+      <c r="D170" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B171" s="4">
+        <v>404171</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B132" s="6">
-        <v>356886</v>
-      </c>
-      <c r="C132" s="10" t="s">
+      <c r="D171" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B172" s="4">
+        <v>404174</v>
+      </c>
+      <c r="C172" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B133" s="6">
-        <v>622578</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="D172" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B173" s="4">
+        <v>628209</v>
+      </c>
+      <c r="C173" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B134" s="6">
-        <v>622576</v>
-      </c>
-      <c r="C134" s="10" t="s">
+      <c r="D173" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B174" s="4">
+        <v>628208</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B135" s="6">
-        <v>622581</v>
-      </c>
-      <c r="C135" s="10" t="s">
+      <c r="D174" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B175" s="4">
+        <v>628206</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B136" s="6">
-        <v>439228</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B137" s="6">
-        <v>439225</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B138" s="6">
-        <v>439226</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B139" s="6">
-        <v>628262</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B140" s="6">
-        <v>628362</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B141" s="6">
-        <v>628362</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B142" s="6">
-        <v>628262</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B143" s="6">
-        <v>376968</v>
-      </c>
-      <c r="C143" s="10" t="s">
+      <c r="D175" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B176" s="4">
+        <v>451289</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B144" s="6">
-        <v>376966</v>
-      </c>
-      <c r="C144" s="10" t="s">
+      <c r="D176" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B177" s="4">
+        <v>622902</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B145" s="6">
-        <v>622918</v>
-      </c>
-      <c r="C145" s="10" t="s">
+      <c r="D177" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B178" s="4">
+        <v>622901</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B146" s="6">
-        <v>622916</v>
-      </c>
-      <c r="C146" s="10" t="s">
+      <c r="D178" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B179" s="4">
+        <v>527414</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B147" s="6">
-        <v>518212</v>
-      </c>
-      <c r="C147" s="10" t="s">
+      <c r="D179" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B180" s="4">
+        <v>524070</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B148" s="6">
-        <v>622690</v>
-      </c>
-      <c r="C148" s="10" t="s">
+      <c r="D180" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B181" s="4">
+        <v>486493</v>
+      </c>
+      <c r="C181" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B149" s="6">
-        <v>520108</v>
-      </c>
-      <c r="C149" s="10" t="s">
+      <c r="D181" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B182" s="4">
+        <v>486494</v>
+      </c>
+      <c r="C182" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B150" s="6">
-        <v>376969</v>
-      </c>
-      <c r="C150" s="10" t="s">
+      <c r="D182" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B183" s="4">
+        <v>451290</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B151" s="6">
-        <v>622919</v>
-      </c>
-      <c r="C151" s="10" t="s">
+      <c r="D183" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B184" s="4">
+        <v>523036</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B152" s="6">
-        <v>556617</v>
-      </c>
-      <c r="C152" s="10" t="s">
+      <c r="D184" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B185" s="4">
+        <v>486861</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B153" s="6">
-        <v>622680</v>
-      </c>
-      <c r="C153" s="10" t="s">
+      <c r="D185" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B186" s="4">
+        <v>622922</v>
+      </c>
+      <c r="C186" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B154" s="6">
-        <v>403391</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B155" s="6">
-        <v>558916</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B156" s="6">
-        <v>514906</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B157" s="6">
-        <v>400360</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B158" s="6">
-        <v>433669</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B159" s="6">
-        <v>433667</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B160" s="6">
-        <v>433666</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B161" s="6">
-        <v>404173</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B162" s="6">
-        <v>404172</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B163" s="6">
-        <v>404159</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B164" s="6">
-        <v>404158</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B165" s="6">
-        <v>403393</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B166" s="6">
-        <v>403392</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B167" s="6">
-        <v>622689</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B168" s="6">
-        <v>622688</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B169" s="6">
-        <v>433668</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B170" s="6">
-        <v>404157</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B171" s="6">
-        <v>404171</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B172" s="6">
-        <v>404174</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B173" s="6">
-        <v>628209</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B174" s="6">
-        <v>628208</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B175" s="6">
-        <v>628206</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B176" s="6">
-        <v>451289</v>
-      </c>
-      <c r="C176" s="10" t="s">
+      <c r="D186" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B187" s="4">
+        <v>552599</v>
+      </c>
+      <c r="C187" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B177" s="6">
-        <v>622902</v>
-      </c>
-      <c r="C177" s="10" t="s">
+      <c r="D187" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B188" s="4">
+        <v>404119</v>
+      </c>
+      <c r="C188" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B178" s="6">
-        <v>622901</v>
-      </c>
-      <c r="C178" s="10" t="s">
+      <c r="D188" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B189" s="4">
+        <v>404121</v>
+      </c>
+      <c r="C189" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B179" s="6">
-        <v>527414</v>
-      </c>
-      <c r="C179" s="10" t="s">
+      <c r="D189" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B190" s="4">
+        <v>519412</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B180" s="6">
-        <v>524070</v>
-      </c>
-      <c r="C180" s="10" t="s">
+      <c r="D190" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B191" s="4">
+        <v>403361</v>
+      </c>
+      <c r="C191" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B181" s="6">
-        <v>486493</v>
-      </c>
-      <c r="C181" s="10" t="s">
+      <c r="D191" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B192" s="4">
+        <v>558730</v>
+      </c>
+      <c r="C192" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B182" s="6">
-        <v>486494</v>
-      </c>
-      <c r="C182" s="10" t="s">
+      <c r="D192" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B193" s="4">
+        <v>520083</v>
+      </c>
+      <c r="C193" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B183" s="6">
-        <v>451290</v>
-      </c>
-      <c r="C183" s="10" t="s">
+      <c r="D193" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B194" s="4">
+        <v>520082</v>
+      </c>
+      <c r="C194" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B184" s="6">
-        <v>523036</v>
-      </c>
-      <c r="C184" s="10" t="s">
+      <c r="D194" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B195" s="4">
+        <v>519413</v>
+      </c>
+      <c r="C195" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B185" s="6">
-        <v>486861</v>
-      </c>
-      <c r="C185" s="10" t="s">
+      <c r="D195" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B196" s="4">
+        <v>49102</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B186" s="6">
-        <v>622922</v>
-      </c>
-      <c r="C186" s="10" t="s">
+      <c r="D196" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B197" s="4">
+        <v>404120</v>
+      </c>
+      <c r="C197" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B187" s="6">
-        <v>552599</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B188" s="6">
-        <v>404119</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B189" s="6">
-        <v>404121</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B190" s="6">
-        <v>519412</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B191" s="6">
-        <v>403361</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B192" s="6">
-        <v>558730</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B193" s="6">
-        <v>520083</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B194" s="6">
-        <v>520082</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B195" s="6">
-        <v>519413</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B196" s="6">
-        <v>49102</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B197" s="6">
-        <v>404120</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="4"/>
+      <c r="D197" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="198" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B198" s="6">
+      <c r="B198" s="4">
         <v>404118</v>
       </c>
-      <c r="C198" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D198" s="4"/>
+      <c r="C198" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="199" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B199" s="6">
+      <c r="B199" s="4">
         <v>53591</v>
       </c>
-      <c r="C199" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D199" s="4"/>
+      <c r="C199" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="200" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B200" s="6">
+      <c r="B200" s="4">
         <v>404117</v>
       </c>
-      <c r="C200" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D200" s="4"/>
+      <c r="C200" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="201" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B201" s="6">
+      <c r="B201" s="4">
         <v>622836</v>
       </c>
-      <c r="C201" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D201" s="4"/>
+      <c r="C201" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="202" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B202" s="6">
+      <c r="B202" s="4">
         <v>622837</v>
       </c>
-      <c r="C202" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D202" s="4"/>
+      <c r="C202" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="203" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B203" s="6">
+      <c r="B203" s="4">
         <v>622848</v>
       </c>
-      <c r="C203" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D203" s="4"/>
+      <c r="C203" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
